--- a/data/trans_orig/CONS_OTR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Edad-trans_orig.xlsx
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>226511</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_OTR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en País Vasco</t>
+          <t>Consumo de otros medicamentos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en Andalucia</t>
+          <t>Consumo de otros medicamentos en Andalucia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en C.Valenciana</t>
+          <t>Consumo de otros medicamentos en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_OTR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Edad-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2389</t>
+          <t>2730</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4185</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3667</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8071</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8102</t>
+          <t>7799</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5816</t>
+          <t>5540</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11037</t>
+          <t>10620</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60427</t>
+          <t>74151</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58631</t>
+          <t>72223</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61539</t>
+          <t>75300</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56780</t>
+          <t>61173</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54422</t>
+          <t>58815</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58826</t>
+          <t>62789</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,09%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>117207</t>
+          <t>135324</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>114272</t>
+          <t>132503</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>119493</t>
+          <t>137583</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>96,13%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>2809</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1619</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>4740</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7963</t>
+          <t>7577</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5717</t>
+          <t>5588</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10620</t>
+          <t>9986</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>11426</t>
+          <t>10386</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8734</t>
+          <t>8056</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>14982</t>
+          <t>13496</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65702</t>
+          <t>72174</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>63787</t>
+          <t>70243</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67212</t>
+          <t>73364</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>54520</t>
+          <t>60471</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>51863</t>
+          <t>58062</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>56766</t>
+          <t>62460</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,0%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>120221</t>
+          <t>132645</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>116665</t>
+          <t>129535</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>122913</t>
+          <t>134975</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>94,37%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5254</t>
+          <t>4924</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>3324</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7835</t>
+          <t>6931</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>9538</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7252</t>
+          <t>7205</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12189</t>
+          <t>12321</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14778</t>
+          <t>14462</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12061</t>
+          <t>11626</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18395</t>
+          <t>17658</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>8,23%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89441</t>
+          <t>99036</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86860</t>
+          <t>97029</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91183</t>
+          <t>100636</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87981</t>
+          <t>101177</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85316</t>
+          <t>98394</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90253</t>
+          <t>103510</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>177422</t>
+          <t>200213</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>173805</t>
+          <t>197017</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>180139</t>
+          <t>203049</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>94,58%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16237</t>
+          <t>14162</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13154</t>
+          <t>11327</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20113</t>
+          <t>17127</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15252</t>
+          <t>14995</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12162</t>
+          <t>12158</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18807</t>
+          <t>18451</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>31489</t>
+          <t>29157</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>26856</t>
+          <t>25297</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>36436</t>
+          <t>33857</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>123177</t>
+          <t>130616</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>119301</t>
+          <t>127651</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>126260</t>
+          <t>133451</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>90,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,57%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>122723</t>
+          <t>137549</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>119168</t>
+          <t>134093</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>125813</t>
+          <t>140386</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>86,37%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>245901</t>
+          <t>268164</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>240954</t>
+          <t>263464</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>250534</t>
+          <t>272024</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,86%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>90,32%</t>
+          <t>91,49%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23474</t>
+          <t>21485</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19600</t>
+          <t>17988</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28122</t>
+          <t>25643</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23775</t>
+          <t>23929</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19517</t>
+          <t>20281</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>27541</t>
+          <t>28173</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>47249</t>
+          <t>45413</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>41896</t>
+          <t>39955</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>53007</t>
+          <t>51203</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>18,19%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>103380</t>
+          <t>108097</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>98732</t>
+          <t>103939</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>107254</t>
+          <t>111594</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>83,42%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>77,83%</t>
+          <t>80,21%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>84,55%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>123566</t>
+          <t>127986</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>119800</t>
+          <t>123742</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>127824</t>
+          <t>131634</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>84,25%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,31%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>226945</t>
+          <t>236085</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>221187</t>
+          <t>230295</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>232298</t>
+          <t>241543</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>82,77%</t>
+          <t>83,87%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>80,67%</t>
+          <t>81,81%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>85,81%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35185</t>
+          <t>34508</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30747</t>
+          <t>30655</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>39858</t>
+          <t>38848</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>33,03%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28564</t>
+          <t>32127</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>24899</t>
+          <t>28423</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>32367</t>
+          <t>36552</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>63749</t>
+          <t>66635</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>57852</t>
+          <t>61042</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>69813</t>
+          <t>73166</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>33,22%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>69958</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>67746</t>
+          <t>65618</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>76857</t>
+          <t>73811</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>67,3%</t>
+          <t>66,97%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>62,96%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>71,43%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>86344</t>
+          <t>83653</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>82541</t>
+          <t>79228</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>90009</t>
+          <t>87357</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>75,14%</t>
+          <t>72,25%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>71,83%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>78,33%</t>
+          <t>75,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>158763</t>
+          <t>153611</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>152699</t>
+          <t>147080</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>164660</t>
+          <t>159204</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>71,35%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>66,78%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>72,28%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>49653</t>
+          <t>44948</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45467</t>
+          <t>40820</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>54136</t>
+          <t>49020</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>47,19%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>56,18%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>49679</t>
+          <t>48868</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>44781</t>
+          <t>44529</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>54774</t>
+          <t>53562</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>99332</t>
+          <t>93817</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>92326</t>
+          <t>87737</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>105971</t>
+          <t>100236</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>39,6%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>45,25%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>46702</t>
+          <t>44275</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>42219</t>
+          <t>40203</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>50888</t>
+          <t>48403</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>43,82%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>54,25%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>84252</t>
+          <t>83444</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>79157</t>
+          <t>78750</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>89150</t>
+          <t>87783</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>63,07%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>59,1%</t>
+          <t>59,52%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>66,56%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>130954</t>
+          <t>127718</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>124315</t>
+          <t>121299</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>137960</t>
+          <t>133798</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>53,98%</t>
+          <t>54,75%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
+          <t>60,4%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>135655</t>
+          <t>125566</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>127109</t>
+          <t>117540</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>145199</t>
+          <t>134174</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>140471</t>
+          <t>142103</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>131830</t>
+          <t>132873</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>150431</t>
+          <t>151587</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>276125</t>
+          <t>267670</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>262664</t>
+          <t>255400</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>288261</t>
+          <t>282291</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>18,55%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>561248</t>
+          <t>598306</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>551704</t>
+          <t>589698</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>569794</t>
+          <t>606332</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>80,53%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>79,17%</t>
+          <t>81,46%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>81,76%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>616164</t>
+          <t>655453</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>606204</t>
+          <t>645969</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>624805</t>
+          <t>664683</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>82,18%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>80,12%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>82,58%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1177413</t>
+          <t>1253759</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1165277</t>
+          <t>1239138</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1190874</t>
+          <t>1266029</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>81,0%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>81,93%</t>
+          <t>83,21%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19333</t>
+          <t>21264</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2839</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>21124</t>
+          <t>20450</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>165020</t>
+          <t>163089</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182286</t>
+          <t>181678</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,51%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>399465</t>
+          <t>400139</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>417982</t>
+          <t>417750</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,32%</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9003</t>
+          <t>8289</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32170</t>
+          <t>32678</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>9651</t>
+          <t>10671</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>31764</t>
+          <t>31483</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,79%</t>
         </is>
       </c>
     </row>
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>282258</t>
+          <t>281750</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>305425</t>
+          <t>306139</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>512032</t>
+          <t>512313</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>534145</t>
+          <t>533125</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,04%</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6820</t>
+          <t>6683</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9218</t>
+          <t>9237</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22910</t>
+          <t>22780</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10364</t>
+          <t>10580</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>24678</t>
+          <t>24455</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>303949</t>
+          <t>304086</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>299703</t>
+          <t>299833</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>313395</t>
+          <t>313376</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>608703</t>
+          <t>608926</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>623017</t>
+          <t>622801</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>98,33%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>669</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12878</t>
+          <t>13116</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17441</t>
+          <t>17549</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45857</t>
+          <t>49592</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>14439</t>
+          <t>13300</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>47364</t>
+          <t>51324</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>614286</t>
+          <t>614048</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>626392</t>
+          <t>626495</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>99,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>358945</t>
+          <t>355210</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>387361</t>
+          <t>387253</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,67%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>984602</t>
+          <t>980642</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1017527</t>
+          <t>1018666</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,71%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4451</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16688</t>
+          <t>16670</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>15307</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>29609</t>
+          <t>29751</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>23609</t>
+          <t>23190</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>41236</t>
+          <t>41226</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>323438</t>
+          <t>323456</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>335675</t>
+          <t>335451</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,69%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>289285</t>
+          <t>289143</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>302912</t>
+          <t>303587</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>617784</t>
+          <t>617794</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>635411</t>
+          <t>635830</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>96,48%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10471</t>
+          <t>11441</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12585</t>
+          <t>8926</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73233</t>
+          <t>72425</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>18054</t>
+          <t>16073</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>66150</t>
+          <t>67835</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,27%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>197613</t>
+          <t>196643</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>205198</t>
+          <t>204959</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>379409</t>
+          <t>380217</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>440057</t>
+          <t>443716</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,82%</t>
+          <t>84,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>594577</t>
+          <t>592892</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>642673</t>
+          <t>644654</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>97,57%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6186</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16289</t>
+          <t>16400</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>27193</t>
+          <t>27265</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>43222</t>
+          <t>43949</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>36938</t>
+          <t>36282</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>55691</t>
+          <t>55377</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,37%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>135486</t>
+          <t>135375</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>145477</t>
+          <t>145589</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>190382</t>
+          <t>189655</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>206411</t>
+          <t>206339</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>81,19%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,36%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>329688</t>
+          <t>330002</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>348441</t>
+          <t>349097</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>85,55%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>90,59%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20028</t>
+          <t>20808</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>44052</t>
+          <t>45035</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>117445</t>
+          <t>114372</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>195793</t>
+          <t>192988</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>152360</t>
+          <t>152095</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>230197</t>
+          <t>226496</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2059470</t>
+          <t>2058487</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2083494</t>
+          <t>2082714</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2035543</t>
+          <t>2038348</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2113891</t>
+          <t>2116964</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4104661</t>
+          <t>4108362</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4182498</t>
+          <t>4182763</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_OTR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de otros medicamentos en Andalucia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2730</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>11250</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3453</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>26311</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>7799</t>
+          <t>11250</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10620</t>
+          <t>25263</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74151</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72223</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75300</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61173</t>
+          <t>208405</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>58815</t>
+          <t>193344</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62789</t>
+          <t>215441</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>88,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>207</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>135324</t>
+          <t>449670</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>132503</t>
+          <t>435657</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>137583</t>
+          <t>456562</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>99,05%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1619</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4740</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7577</t>
+          <t>19069</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5588</t>
+          <t>10872</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9986</t>
+          <t>29713</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10386</t>
+          <t>19069</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8056</t>
+          <t>11559</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13496</t>
+          <t>30567</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72174</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70243</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73364</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>233</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60471</t>
+          <t>264384</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>58062</t>
+          <t>253740</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62460</t>
+          <t>272581</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>85,33%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>386</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>132645</t>
+          <t>526357</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>129535</t>
+          <t>514859</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>134975</t>
+          <t>533867</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>97,88%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4924</t>
+          <t>1357</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3324</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6931</t>
+          <t>6730</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9538</t>
+          <t>15821</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7205</t>
+          <t>10063</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12321</t>
+          <t>24195</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14462</t>
+          <t>17177</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11626</t>
+          <t>11059</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>17658</t>
+          <t>25747</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>99036</t>
+          <t>366961</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97029</t>
+          <t>361588</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>100636</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>473</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>101177</t>
+          <t>357564</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>98394</t>
+          <t>349190</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>103510</t>
+          <t>363322</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>785</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>200213</t>
+          <t>724526</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>197017</t>
+          <t>715956</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>203049</t>
+          <t>730644</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>98,51%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14162</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11327</t>
+          <t>2178</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17127</t>
+          <t>13389</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14995</t>
+          <t>23891</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12158</t>
+          <t>16837</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18451</t>
+          <t>31874</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>29157</t>
+          <t>29383</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>25297</t>
+          <t>21135</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>33857</t>
+          <t>40644</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>130616</t>
+          <t>418449</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>127651</t>
+          <t>410552</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>133451</t>
+          <t>421763</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,22%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>99,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>624</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>137549</t>
+          <t>417401</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>134093</t>
+          <t>409418</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>140386</t>
+          <t>424455</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>268164</t>
+          <t>835851</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>263464</t>
+          <t>824590</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>272024</t>
+          <t>844099</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>97,56%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21485</t>
+          <t>9640</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17988</t>
+          <t>4951</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25643</t>
+          <t>17472</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23929</t>
+          <t>24557</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>20281</t>
+          <t>17248</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>28173</t>
+          <t>33422</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>45413</t>
+          <t>34197</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39955</t>
+          <t>25734</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>51203</t>
+          <t>45423</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>108097</t>
+          <t>359390</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>103939</t>
+          <t>351558</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>111594</t>
+          <t>364079</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>80,21%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>529</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>127986</t>
+          <t>335809</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>123742</t>
+          <t>326944</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>131634</t>
+          <t>343118</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>84,25%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>86,65%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>918</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>236085</t>
+          <t>695199</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>230295</t>
+          <t>683973</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>241543</t>
+          <t>703662</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>81,81%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>96,47%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>965</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>729396</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>729396</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>729396</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34508</t>
+          <t>6955</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30655</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38848</t>
+          <t>12850</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32127</t>
+          <t>42127</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28423</t>
+          <t>33685</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>36552</t>
+          <t>51875</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>66635</t>
+          <t>49082</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>61042</t>
+          <t>39905</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>73166</t>
+          <t>61098</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>12,19%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>69958</t>
+          <t>224318</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>65618</t>
+          <t>218423</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>73811</t>
+          <t>227592</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>66,97%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>62,81%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>410</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>83653</t>
+          <t>227905</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>79228</t>
+          <t>218157</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>87357</t>
+          <t>236347</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>72,25%</t>
+          <t>84,4%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>80,79%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>75,45%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>717</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>153611</t>
+          <t>452222</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>147080</t>
+          <t>440206</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>159204</t>
+          <t>461399</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>69,75%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>72,28%</t>
+          <t>92,04%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>44948</t>
+          <t>11766</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>40820</t>
+          <t>7025</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>49020</t>
+          <t>18383</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>54,94%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>48868</t>
+          <t>39143</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>44529</t>
+          <t>30537</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>53562</t>
+          <t>49345</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>93817</t>
+          <t>50908</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>87737</t>
+          <t>41025</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>100236</t>
+          <t>62170</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>44275</t>
+          <t>153815</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>40203</t>
+          <t>147198</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>48403</t>
+          <t>158556</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>54,25%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>376</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>83444</t>
+          <t>217464</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>78750</t>
+          <t>207262</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>87783</t>
+          <t>226070</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>63,07%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>59,52%</t>
+          <t>80,77%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>591</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>127718</t>
+          <t>371280</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>121299</t>
+          <t>360018</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>133798</t>
+          <t>381163</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>85,27%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>60,4%</t>
+          <t>90,28%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>125566</t>
+          <t>35210</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>117540</t>
+          <t>25746</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>134174</t>
+          <t>47802</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>251</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>142103</t>
+          <t>175857</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>132873</t>
+          <t>155230</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>151587</t>
+          <t>198324</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>293</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>267670</t>
+          <t>211067</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>255400</t>
+          <t>185629</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>282291</t>
+          <t>238334</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3304</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>598306</t>
+          <t>2026172</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>589698</t>
+          <t>2013580</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>606332</t>
+          <t>2035636</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>83,76%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3626</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>655453</t>
+          <t>2028933</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>645969</t>
+          <t>2006466</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>664683</t>
+          <t>2049560</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>82,18%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>91,0%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>83,34%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>6930</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1253759</t>
+          <t>4055105</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1239138</t>
+          <t>4027838</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1266029</t>
+          <t>4080543</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>83,21%</t>
+          <t>95,65%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4906</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4266172</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4266172</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4266172</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en Andalucia (tasa de respuesta: 99,92%)</t>
+          <t>Consumo de otros medicamentos en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8741</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4805</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14965</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8441</t>
+          <t>6449</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2675</t>
+          <t>3216</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21264</t>
+          <t>11715</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8441</t>
+          <t>15190</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2839</t>
+          <t>10066</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>20450</t>
+          <t>22711</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>161430</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>155206</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>165366</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,86%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>260</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>175912</t>
+          <t>163993</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>163089</t>
+          <t>158727</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>181678</t>
+          <t>167226</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>517</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>412148</t>
+          <t>325423</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>400139</t>
+          <t>317902</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>417750</t>
+          <t>330547</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,32%</t>
+          <t>97,04%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4060,37 +4060,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9869</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5832</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16109</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4100,67 +4100,67 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19387</t>
+          <t>10235</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8289</t>
+          <t>6047</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32678</t>
+          <t>16770</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>19387</t>
+          <t>20104</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>10671</t>
+          <t>13643</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>31483</t>
+          <t>28876</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>7,33%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>172344</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>166104</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>176381</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>299</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>295041</t>
+          <t>201243</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>281750</t>
+          <t>194708</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>306139</t>
+          <t>205431</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>572</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>524409</t>
+          <t>373586</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>512313</t>
+          <t>364814</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>533125</t>
+          <t>380047</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>96,53%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>16556</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10823</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6683</t>
+          <t>23266</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15024</t>
+          <t>21782</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9237</t>
+          <t>15560</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22780</t>
+          <t>30793</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>16380</t>
+          <t>38337</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10580</t>
+          <t>29074</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>24455</t>
+          <t>48445</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>9,74%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>309414</t>
+          <t>232365</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>304086</t>
+          <t>225655</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>238098</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>370</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>307589</t>
+          <t>226869</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>299833</t>
+          <t>217858</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>313376</t>
+          <t>233091</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>87,62%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>93,74%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>736</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>617001</t>
+          <t>459235</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>608926</t>
+          <t>449127</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>622801</t>
+          <t>468498</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>94,16%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>497572</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>497572</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>497572</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5035</t>
+          <t>14892</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>9873</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13116</t>
+          <t>21778</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25357</t>
+          <t>25233</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17549</t>
+          <t>17440</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49592</t>
+          <t>35081</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>30392</t>
+          <t>40125</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>13300</t>
+          <t>30441</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>51324</t>
+          <t>51901</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>9,01%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>459</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>622129</t>
+          <t>282115</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>614048</t>
+          <t>275229</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>626495</t>
+          <t>287134</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>420</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>379445</t>
+          <t>253742</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>355210</t>
+          <t>243894</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>387253</t>
+          <t>261535</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>879</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1001574</t>
+          <t>535858</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>980642</t>
+          <t>524082</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1018666</t>
+          <t>545542</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>93,03%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>94,71%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9170</t>
+          <t>28348</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4675</t>
+          <t>20828</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16670</t>
+          <t>36988</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21632</t>
+          <t>35358</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15307</t>
+          <t>26528</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>29751</t>
+          <t>45480</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>98</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>30802</t>
+          <t>63706</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>23190</t>
+          <t>52255</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>41226</t>
+          <t>77732</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>15,9%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>327</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>330956</t>
+          <t>206352</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>323456</t>
+          <t>197712</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>335451</t>
+          <t>213872</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>84,24%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>91,13%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>363</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>297262</t>
+          <t>218738</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>289143</t>
+          <t>208616</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>303587</t>
+          <t>227568</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>86,08%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>89,56%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>690</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>628218</t>
+          <t>425090</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>617794</t>
+          <t>411064</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>635830</t>
+          <t>436541</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>89,31%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>659020</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>659020</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>659020</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5906</t>
+          <t>35094</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>28632</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11441</t>
+          <t>41616</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37344</t>
+          <t>26568</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8926</t>
+          <t>19944</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>72425</t>
+          <t>33146</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>180</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>43250</t>
+          <t>61663</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>16073</t>
+          <t>52785</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>67835</t>
+          <t>70089</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>18,8%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>457</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>202178</t>
+          <t>148954</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>196643</t>
+          <t>142432</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>204959</t>
+          <t>155416</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>80,93%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>77,39%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>84,44%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>419</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>415298</t>
+          <t>162106</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>380217</t>
+          <t>155528</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>443716</t>
+          <t>168730</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,0%</t>
+          <t>82,43%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>876</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>617477</t>
+          <t>311060</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>592892</t>
+          <t>302634</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>644654</t>
+          <t>319938</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>83,46%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>81,2%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>85,84%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10621</t>
+          <t>40903</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6186</t>
+          <t>35373</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16400</t>
+          <t>47662</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>34864</t>
+          <t>35443</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>27265</t>
+          <t>28886</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>43949</t>
+          <t>43049</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>221</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>45485</t>
+          <t>76346</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>36282</t>
+          <t>66716</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>55377</t>
+          <t>85597</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>23,85%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>141154</t>
+          <t>106143</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>135375</t>
+          <t>99384</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>145589</t>
+          <t>111673</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>72,18%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>67,59%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>75,94%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>438</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>198740</t>
+          <t>176377</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>189655</t>
+          <t>168771</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>206339</t>
+          <t>182934</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>83,27%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>81,19%</t>
+          <t>79,68%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>789</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>339894</t>
+          <t>282520</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>330002</t>
+          <t>273269</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>349097</t>
+          <t>292150</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>85,63%</t>
+          <t>76,15%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>81,41%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>147046</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>147046</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>147046</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358866</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358866</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358866</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>32087</t>
+          <t>154403</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20808</t>
+          <t>138457</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>45035</t>
+          <t>172070</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>311</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>162049</t>
+          <t>161067</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>114372</t>
+          <t>143304</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>192988</t>
+          <t>181641</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>682</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>194136</t>
+          <t>315470</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>152095</t>
+          <t>292438</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>226496</t>
+          <t>341990</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2071435</t>
+          <t>1309704</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2058487</t>
+          <t>1292037</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2082714</t>
+          <t>1325650</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2069287</t>
+          <t>1403070</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2038348</t>
+          <t>1382496</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2116964</t>
+          <t>1420833</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>88,39%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>5059</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4140722</t>
+          <t>2712773</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4108362</t>
+          <t>2686253</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4182763</t>
+          <t>2735805</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>90,34%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>2861</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>1464107</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>1464107</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>1464107</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4906</t>
+          <t>5741</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4334858</t>
+          <t>3028243</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4334858</t>
+          <t>3028243</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4334858</t>
+          <t>3028243</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en C.Valenciana (tasa de respuesta: 99,77%)</t>
+          <t>Consumo de otros medicamentos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8741</t>
+          <t>2730</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14965</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6449</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11715</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>15190</t>
+          <t>7799</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>10066</t>
+          <t>5540</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>22711</t>
+          <t>10620</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>362</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>161430</t>
+          <t>74151</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>155206</t>
+          <t>72223</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>165366</t>
+          <t>75300</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>163993</t>
+          <t>61173</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>158727</t>
+          <t>58815</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>167226</t>
+          <t>62789</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>681</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>325423</t>
+          <t>135324</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>317902</t>
+          <t>132503</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>330547</t>
+          <t>137583</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>96,13%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,107 +7047,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9869</t>
+          <t>2809</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5832</t>
+          <t>1619</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16109</t>
+          <t>4740</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10235</t>
+          <t>7577</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6047</t>
+          <t>5588</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16770</t>
+          <t>9986</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>20104</t>
+          <t>10386</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>13643</t>
+          <t>8056</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28876</t>
+          <t>13496</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>172344</t>
+          <t>72174</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>166104</t>
+          <t>70243</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>176381</t>
+          <t>73364</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>323</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>201243</t>
+          <t>60471</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>194708</t>
+          <t>58062</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>205431</t>
+          <t>62460</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>703</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>373586</t>
+          <t>132645</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>364814</t>
+          <t>129535</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>380047</t>
+          <t>134975</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>94,37%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16556</t>
+          <t>4924</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10823</t>
+          <t>3324</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23266</t>
+          <t>6931</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21782</t>
+          <t>9538</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15560</t>
+          <t>7205</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30793</t>
+          <t>12321</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>38337</t>
+          <t>14462</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29074</t>
+          <t>11626</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>48445</t>
+          <t>17658</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>8,23%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>537</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>232365</t>
+          <t>99036</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>225655</t>
+          <t>97029</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>238098</t>
+          <t>100636</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>521</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>226869</t>
+          <t>101177</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>217858</t>
+          <t>98394</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>233091</t>
+          <t>103510</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,62%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>459235</t>
+          <t>200213</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>449127</t>
+          <t>197017</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>468498</t>
+          <t>203049</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>94,58%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>497572</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>497572</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>497572</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14892</t>
+          <t>14162</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9873</t>
+          <t>11327</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21778</t>
+          <t>17127</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25233</t>
+          <t>14995</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17440</t>
+          <t>12158</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35081</t>
+          <t>18451</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>180</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>40125</t>
+          <t>29157</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>30441</t>
+          <t>25297</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>51901</t>
+          <t>33857</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>282115</t>
+          <t>130616</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>275229</t>
+          <t>127651</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>287134</t>
+          <t>133451</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>90,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>722</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>253742</t>
+          <t>137549</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>243894</t>
+          <t>134093</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>261535</t>
+          <t>140386</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,43%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>535858</t>
+          <t>268164</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>524082</t>
+          <t>263464</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>545542</t>
+          <t>272024</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>91,49%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>28348</t>
+          <t>21485</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20828</t>
+          <t>17988</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>36988</t>
+          <t>25643</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>35358</t>
+          <t>23929</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26528</t>
+          <t>20281</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>45480</t>
+          <t>28173</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>265</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>63706</t>
+          <t>45413</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>52255</t>
+          <t>39955</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>77732</t>
+          <t>51203</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>18,19%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>606</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>206352</t>
+          <t>108097</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>197712</t>
+          <t>103939</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>213872</t>
+          <t>111594</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>83,42%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>80,21%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>721</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>218738</t>
+          <t>127986</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>208616</t>
+          <t>123742</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>227568</t>
+          <t>131634</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,08%</t>
+          <t>84,25%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,1%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>425090</t>
+          <t>236085</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>411064</t>
+          <t>230295</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>436541</t>
+          <t>241543</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>83,87%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>84,1%</t>
+          <t>81,81%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>85,81%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35094</t>
+          <t>34508</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28632</t>
+          <t>30655</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41616</t>
+          <t>38848</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>33,03%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>192</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26568</t>
+          <t>32127</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19944</t>
+          <t>28423</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33146</t>
+          <t>36552</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>400</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>61663</t>
+          <t>66635</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>52785</t>
+          <t>61042</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>70089</t>
+          <t>73166</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>33,22%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>438</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>148954</t>
+          <t>69958</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>142432</t>
+          <t>65618</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>155416</t>
+          <t>73811</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>80,93%</t>
+          <t>66,97%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>84,44%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>162106</t>
+          <t>83653</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>155528</t>
+          <t>79228</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>168730</t>
+          <t>87357</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>72,25%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>82,43%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>75,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>949</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>311060</t>
+          <t>153611</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>302634</t>
+          <t>147080</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>319938</t>
+          <t>159204</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>83,46%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>81,2%</t>
+          <t>66,78%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>85,84%</t>
+          <t>72,28%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>40903</t>
+          <t>44948</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>35373</t>
+          <t>40820</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>47662</t>
+          <t>49020</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35443</t>
+          <t>48868</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>28886</t>
+          <t>44529</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>43049</t>
+          <t>53562</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>584</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>76346</t>
+          <t>93817</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>66716</t>
+          <t>87737</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>85597</t>
+          <t>100236</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>39,6%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>45,25%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>106143</t>
+          <t>44275</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>99384</t>
+          <t>40203</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>111673</t>
+          <t>48403</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>72,18%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>67,59%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>75,94%</t>
+          <t>54,25%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>509</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>176377</t>
+          <t>83444</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>168771</t>
+          <t>78750</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>182934</t>
+          <t>87783</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>83,27%</t>
+          <t>63,07%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>59,52%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>777</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>282520</t>
+          <t>127718</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>273269</t>
+          <t>121299</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>292150</t>
+          <t>133798</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>78,73%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>54,75%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>81,41%</t>
+          <t>60,4%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>147046</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>147046</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>147046</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358866</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358866</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358866</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>154403</t>
+          <t>125566</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>138457</t>
+          <t>117540</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>172070</t>
+          <t>134174</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>849</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>161067</t>
+          <t>142103</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>143304</t>
+          <t>132873</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>181641</t>
+          <t>151587</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>315470</t>
+          <t>267670</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>292438</t>
+          <t>255400</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>341990</t>
+          <t>282291</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>18,55%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1309704</t>
+          <t>598306</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1292037</t>
+          <t>589698</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1325650</t>
+          <t>606332</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>81,46%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1403070</t>
+          <t>655453</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1382496</t>
+          <t>645969</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1420833</t>
+          <t>664683</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>82,18%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>88,39%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5059</t>
+          <t>6930</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2712773</t>
+          <t>1253759</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2686253</t>
+          <t>1239138</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2735805</t>
+          <t>1266029</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>90,34%</t>
+          <t>83,21%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1464107</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1464107</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1464107</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5741</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3028243</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3028243</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3028243</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
